--- a/inflections/inflection_templates.xlsx
+++ b/inflections/inflection_templates.xlsx
@@ -9638,7 +9638,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A102" activeCellId="0" sqref="A102"/>
-      <selection pane="bottomRight" activeCell="A121" activeCellId="0" sqref="A121"/>
+      <selection pane="bottomRight" activeCell="A121" activeCellId="1" sqref="BL32 A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38875,8 +38875,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CD140" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CK148" activeCellId="0" sqref="CK148"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AX25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BL32" activeCellId="0" sqref="BL32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45038,7 +45038,7 @@
       <c r="CV31" s="20"/>
       <c r="CW31" s="20"/>
     </row>
-    <row r="32" customFormat="false" ht="42.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="49"/>
@@ -45082,7 +45082,7 @@
         <v>589</v>
       </c>
       <c r="BH32" s="42" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="BI32" s="56" t="s">
         <v>591</v>
@@ -45091,7 +45091,7 @@
         <v>587</v>
       </c>
       <c r="BL32" s="42" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="BM32" s="56" t="s">
         <v>591</v>
@@ -45106,7 +45106,7 @@
         <v>593</v>
       </c>
       <c r="BT32" s="28" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="BU32" s="43" t="s">
         <v>595</v>
@@ -45115,7 +45115,7 @@
         <v>587</v>
       </c>
       <c r="BX32" s="28" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="BY32" s="43" t="s">
         <v>595</v>
@@ -73586,7 +73586,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="A19" activeCellId="1" sqref="BL32 A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -76036,7 +76036,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B201" activeCellId="0" sqref="B201"/>
+      <selection pane="bottomLeft" activeCell="B201" activeCellId="1" sqref="BL32 B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/inflections/inflection_templates.xlsx
+++ b/inflections/inflection_templates.xlsx
@@ -3875,7 +3875,8 @@
 avocisuṃ</t>
   </si>
   <si>
-    <t xml:space="preserve">avoca</t>
+    <t xml:space="preserve">avoca
+avocāsi</t>
   </si>
   <si>
     <t xml:space="preserve">avocu</t>
@@ -9627,7 +9628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9638,7 +9639,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A102" activeCellId="0" sqref="A102"/>
-      <selection pane="bottomRight" activeCell="A121" activeCellId="1" sqref="BL32 A121"/>
+      <selection pane="bottomRight" activeCell="A121" activeCellId="0" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38859,8 +38860,8 @@
     <hyperlink ref="B100" location="declensions!CC47:CG56" display="CC47:CG56"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -38869,14 +38870,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AX25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BL32" activeCellId="0" sqref="BL32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CN44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CX52" activeCellId="0" sqref="CX52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -73565,8 +73566,8 @@
     <mergeCell ref="BH224:BI224"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -73575,7 +73576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -73586,13 +73587,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A19" activeCellId="1" sqref="BL32 A19"/>
+      <selection pane="bottomRight" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="26.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="21" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="18.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="22.76"/>
@@ -76017,8 +76018,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -76027,7 +76028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -76036,7 +76037,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B201" activeCellId="1" sqref="BL32 B201"/>
+      <selection pane="bottomLeft" activeCell="B201" activeCellId="0" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -76221,7 +76222,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>

--- a/inflections/inflection_templates.xlsx
+++ b/inflections/inflection_templates.xlsx
@@ -2106,7 +2106,8 @@
     <t xml:space="preserve">reflx fut 3rd sg</t>
   </si>
   <si>
-    <t xml:space="preserve">issante</t>
+    <t xml:space="preserve">issante
+issare</t>
   </si>
   <si>
     <t xml:space="preserve">reflx fut 3rd pl</t>
@@ -2952,7 +2953,8 @@
     <t xml:space="preserve">essate</t>
   </si>
   <si>
-    <t xml:space="preserve">essante</t>
+    <t xml:space="preserve">essante
+essare</t>
   </si>
   <si>
     <t xml:space="preserve">hotu</t>
@@ -9628,7 +9630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -38860,8 +38862,8 @@
     <hyperlink ref="B100" location="declensions!CC47:CG56" display="CC47:CG56"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -38870,14 +38872,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CN44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CX52" activeCellId="0" sqref="CX52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CP4" activeCellId="0" sqref="CP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44219,7 +44221,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="69.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="49"/>
@@ -50167,7 +50169,7 @@
       </c>
       <c r="DA57" s="48"/>
     </row>
-    <row r="58" customFormat="false" ht="55.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="22" t="s">
         <v>15</v>
       </c>
@@ -56542,7 +56544,7 @@
         <v>661</v>
       </c>
       <c r="CP94" s="57" t="s">
-        <v>706</v>
+        <v>443</v>
       </c>
       <c r="CQ94" s="58" t="s">
         <v>663</v>
@@ -73566,8 +73568,8 @@
     <mergeCell ref="BH224:BI224"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -73576,7 +73578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -73593,7 +73595,7 @@
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="26.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="21" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="18.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="22.76"/>
@@ -76018,8 +76020,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -76028,7 +76030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -76222,7 +76224,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>

--- a/inflections/inflection_templates.xlsx
+++ b/inflections/inflection_templates.xlsx
@@ -4668,7 +4668,8 @@
   </si>
   <si>
     <t xml:space="preserve">amha
-amhā</t>
+amhā
+umhā</t>
   </si>
   <si>
     <t xml:space="preserve">amhase</t>
@@ -9630,7 +9631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -38872,14 +38873,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CP4" activeCellId="0" sqref="CP4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CB76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CL84" activeCellId="0" sqref="CL84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -54669,7 +54670,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="22" t="s">
         <v>511</v>
       </c>
@@ -73578,7 +73579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -73595,7 +73596,7 @@
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="26.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="21" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="18.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="22.76"/>
@@ -76030,7 +76031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>

--- a/inflections/inflection_templates.xlsx
+++ b/inflections/inflection_templates.xlsx
@@ -9646,7 +9646,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A102" activeCellId="0" sqref="A102"/>
-      <selection pane="bottomRight" activeCell="A121" activeCellId="0" sqref="A121"/>
+      <selection pane="bottomRight" activeCell="A121" activeCellId="1" sqref="CN142 A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38883,8 +38883,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BF82" activeCellId="0" sqref="BF82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CB134" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CN142" activeCellId="0" sqref="CN142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -59203,7 +59203,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="23"/>
       <c r="D112" s="23"/>
       <c r="F112" s="23"/>
@@ -59255,7 +59255,7 @@
         <v>668</v>
       </c>
       <c r="CN112" s="57" t="s">
-        <v>416</v>
+        <v>1225</v>
       </c>
       <c r="CO112" s="58" t="s">
         <v>934</v>
@@ -63362,7 +63362,7 @@
       </c>
       <c r="DA141" s="48"/>
     </row>
-    <row r="142" customFormat="false" ht="69.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="22" t="s">
         <v>567</v>
       </c>
@@ -63471,7 +63471,7 @@
         <v>668</v>
       </c>
       <c r="CN142" s="57" t="s">
-        <v>416</v>
+        <v>1225</v>
       </c>
       <c r="CO142" s="58" t="s">
         <v>934</v>
@@ -73594,7 +73594,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="A19" activeCellId="1" sqref="CN142 A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -76044,7 +76044,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B201" activeCellId="0" sqref="B201"/>
+      <selection pane="bottomLeft" activeCell="B201" activeCellId="1" sqref="CN142 B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/inflections/inflection_templates.xlsx
+++ b/inflections/inflection_templates.xlsx
@@ -1687,28 +1687,8 @@
     <t xml:space="preserve">reflx imp 3rd sg</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Crimson Pro"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">antaṃ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Crimson Pro"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">aruṃ</t>
-    </r>
+    <t xml:space="preserve">antaṃ
+aruṃ</t>
   </si>
   <si>
     <t xml:space="preserve">reflx imp 3rd pl</t>
@@ -3996,6 +3976,7 @@
   </si>
   <si>
     <t xml:space="preserve">kañci
+kañcinaṃ
 kiñci
 kiñcanaṃ</t>
   </si>
@@ -8961,7 +8942,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9050,13 +9031,6 @@
       <name val="Crimson Pro"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Crimson Pro"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -9561,11 +9535,11 @@
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9573,7 +9547,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9597,7 +9571,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -38933,8 +38907,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CD4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CP7" activeCellId="0" sqref="CP7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD55" activeCellId="0" sqref="AD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49726,7 +49700,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="42.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="49"/>

--- a/inflections/inflection_templates.xlsx
+++ b/inflections/inflection_templates.xlsx
@@ -6092,6 +6092,7 @@
   </si>
   <si>
     <t xml:space="preserve">aresu
+ū
 ūsu</t>
   </si>
   <si>
@@ -38912,8 +38913,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BJ26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BR30" activeCellId="0" sqref="BR30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW123" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BH131" activeCellId="0" sqref="BH131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -61275,7 +61276,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="22" t="s">
         <v>411</v>
       </c>

--- a/inflections/inflection_templates.xlsx
+++ b/inflections/inflection_templates.xlsx
@@ -3957,7 +3957,8 @@
 uyaṃ</t>
   </si>
   <si>
-    <t xml:space="preserve">aresu</t>
+    <t xml:space="preserve">aresu
+ūsu</t>
   </si>
   <si>
     <t xml:space="preserve">e
@@ -6092,6 +6093,7 @@
   </si>
   <si>
     <t xml:space="preserve">aresu
+usu
 ū
 ūsu</t>
   </si>
@@ -6302,7 +6304,9 @@
 matyaṃ</t>
   </si>
   <si>
-    <t xml:space="preserve">mātaresu</t>
+    <t xml:space="preserve">mātaresu
+mātusu
+mātūsu</t>
   </si>
   <si>
     <t xml:space="preserve">iṃsu
@@ -38913,8 +38917,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW123" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BH131" activeCellId="0" sqref="BH131"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CL11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CV15" activeCellId="0" sqref="CV15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41357,7 +41361,7 @@
       </c>
       <c r="DC12" s="48"/>
     </row>
-    <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="23"/>
       <c r="D13" s="23"/>
       <c r="F13" s="23"/>
@@ -62117,7 +62121,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="55.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="22" t="s">
         <v>569</v>
       </c>

--- a/inflections/inflection_templates.xlsx
+++ b/inflections/inflection_templates.xlsx
@@ -38917,8 +38917,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CL11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CV15" activeCellId="0" sqref="CV15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BF55" activeCellId="0" sqref="BF55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49816,7 +49816,7 @@
         <v>620</v>
       </c>
       <c r="BF55" s="42" t="s">
-        <v>621</v>
+        <v>1165</v>
       </c>
       <c r="BG55" s="56" t="s">
         <v>622</v>
